--- a/ResultadoEleicoesDistritos/CASTELO BRANCO_CASTELO BRANCO.xlsx
+++ b/ResultadoEleicoesDistritos/CASTELO BRANCO_CASTELO BRANCO.xlsx
@@ -597,64 +597,64 @@
         <v>14424</v>
       </c>
       <c r="H2" t="n">
-        <v>506</v>
+        <v>558</v>
       </c>
       <c r="I2" t="n">
-        <v>1396</v>
+        <v>1453</v>
       </c>
       <c r="J2" t="n">
-        <v>6039</v>
+        <v>5760</v>
       </c>
       <c r="K2" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="L2" t="n">
-        <v>1637</v>
+        <v>1617</v>
       </c>
       <c r="M2" t="n">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="N2" t="n">
-        <v>1002</v>
+        <v>1054</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R2" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="S2" t="n">
-        <v>681</v>
+        <v>610</v>
       </c>
       <c r="T2" t="n">
-        <v>1007</v>
+        <v>1064</v>
       </c>
       <c r="U2" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="V2" t="n">
-        <v>9194</v>
+        <v>9301</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>9266</v>
+        <v>9278</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z2" t="n">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="AA2" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
